--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>608.6709749952092</v>
+        <v>660.5728038175212</v>
       </c>
       <c r="AB2" t="n">
-        <v>832.8104806566964</v>
+        <v>903.8248525984692</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.3282172396716</v>
+        <v>817.5650771926183</v>
       </c>
       <c r="AD2" t="n">
-        <v>608670.9749952093</v>
+        <v>660572.8038175212</v>
       </c>
       <c r="AE2" t="n">
-        <v>832810.4806566965</v>
+        <v>903824.8525984692</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.162007215629935e-06</v>
+        <v>3.654980468607159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.372222222222224</v>
       </c>
       <c r="AH2" t="n">
-        <v>753328.2172396716</v>
+        <v>817565.0771926183</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.7066257655855</v>
+        <v>226.864737524756</v>
       </c>
       <c r="AB3" t="n">
-        <v>267.774439339325</v>
+        <v>310.4063424470771</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.2184226726442</v>
+        <v>280.7815967820578</v>
       </c>
       <c r="AD3" t="n">
-        <v>195706.6257655855</v>
+        <v>226864.7375247559</v>
       </c>
       <c r="AE3" t="n">
-        <v>267774.439339325</v>
+        <v>310406.342447077</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.054711778084914e-06</v>
+        <v>6.854691440247462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.997222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>242218.4226726441</v>
+        <v>280781.5967820578</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.0556910186097</v>
+        <v>218.2138027777801</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.9378487662132</v>
+        <v>298.5697518739653</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.5114996910671</v>
+        <v>270.0746738004808</v>
       </c>
       <c r="AD4" t="n">
-        <v>187055.6910186097</v>
+        <v>218213.8027777801</v>
       </c>
       <c r="AE4" t="n">
-        <v>255937.8487662132</v>
+        <v>298569.7518739653</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.165583942989013e-06</v>
+        <v>7.04212633607347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.86388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>231511.4996910671</v>
+        <v>270074.6738004808</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.6605650553215</v>
+        <v>391.9323580954529</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.8399404467509</v>
+        <v>536.2591431815129</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.6131110427305</v>
+        <v>485.079323200703</v>
       </c>
       <c r="AD2" t="n">
-        <v>361660.5650553214</v>
+        <v>391932.3580954529</v>
       </c>
       <c r="AE2" t="n">
-        <v>494839.9404467508</v>
+        <v>536259.1431815128</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.894708272262106e-06</v>
+        <v>5.013029755190441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.240277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>447613.1110427305</v>
+        <v>485079.323200703</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.5874617621705</v>
+        <v>210.7686869584415</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.7701733082793</v>
+        <v>288.3830159546226</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.8826339610501</v>
+        <v>260.8601456601033</v>
       </c>
       <c r="AD3" t="n">
-        <v>190587.4617621705</v>
+        <v>210768.6869584415</v>
       </c>
       <c r="AE3" t="n">
-        <v>260770.1733082793</v>
+        <v>288383.0159546226</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.171603464984576e-06</v>
+        <v>7.224345367445606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>235882.6339610501</v>
+        <v>260860.1456601033</v>
       </c>
     </row>
   </sheetData>
@@ -2714,28 +2714,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.7045358352996</v>
+        <v>227.9653813274247</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.612800388935</v>
+        <v>311.9122918548654</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.4041401413816</v>
+        <v>282.1438204919805</v>
       </c>
       <c r="AD2" t="n">
-        <v>200704.5358352996</v>
+        <v>227965.3813274247</v>
       </c>
       <c r="AE2" t="n">
-        <v>274612.800388935</v>
+        <v>311912.2918548654</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814756150532241e-06</v>
+        <v>7.218339533113167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.130555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>248404.1401413816</v>
+        <v>282143.8204919805</v>
       </c>
     </row>
   </sheetData>
@@ -3011,28 +3011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.174752461157</v>
+        <v>214.664644798074</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.7325097676408</v>
+        <v>293.7136373483344</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.4211965548142</v>
+        <v>265.6820200295751</v>
       </c>
       <c r="AD2" t="n">
-        <v>186174.752461157</v>
+        <v>214664.644798074</v>
       </c>
       <c r="AE2" t="n">
-        <v>254732.5097676408</v>
+        <v>293713.6373483344</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041257569481868e-06</v>
+        <v>7.36229363237209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.536111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>230421.1965548142</v>
+        <v>265682.0200295751</v>
       </c>
     </row>
     <row r="3">
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.5133731148277</v>
+        <v>215.0032654517447</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.1958254848818</v>
+        <v>294.1769530655754</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.8402940702696</v>
+        <v>266.1011175450304</v>
       </c>
       <c r="AD3" t="n">
-        <v>186513.3731148277</v>
+        <v>215003.2654517447</v>
       </c>
       <c r="AE3" t="n">
-        <v>255195.8254848818</v>
+        <v>294176.9530655754</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.049151594632539e-06</v>
+        <v>7.376674831813438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.526388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>230840.2940702696</v>
+        <v>266101.1175450304</v>
       </c>
     </row>
   </sheetData>
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.5626034337794</v>
+        <v>248.6878624474766</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.2057757350737</v>
+        <v>340.2657047346513</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.3180666123864</v>
+        <v>307.7912234407936</v>
       </c>
       <c r="AD2" t="n">
-        <v>213562.6034337794</v>
+        <v>248687.8624474766</v>
       </c>
       <c r="AE2" t="n">
-        <v>292205.7757350737</v>
+        <v>340265.7047346513</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.498292888254132e-06</v>
+        <v>6.855526909373458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.943055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>264318.0666123864</v>
+        <v>307791.2234407936</v>
       </c>
     </row>
   </sheetData>
@@ -3711,28 +3711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.964408786429</v>
+        <v>444.6672347464934</v>
       </c>
       <c r="AB2" t="n">
-        <v>552.7219257535197</v>
+        <v>608.4133279140282</v>
       </c>
       <c r="AC2" t="n">
-        <v>499.970920909698</v>
+        <v>550.3472138113814</v>
       </c>
       <c r="AD2" t="n">
-        <v>403964.408786429</v>
+        <v>444667.2347464933</v>
       </c>
       <c r="AE2" t="n">
-        <v>552721.9257535198</v>
+        <v>608413.3279140282</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.706732120367038e-06</v>
+        <v>4.656881746257838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>499970.9209096979</v>
+        <v>550347.2138113814</v>
       </c>
     </row>
     <row r="3">
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.8862049201102</v>
+        <v>212.3279835355865</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.8647298246189</v>
+        <v>290.5165143227812</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.1134292940717</v>
+        <v>262.7900259383892</v>
       </c>
       <c r="AD3" t="n">
-        <v>181886.2049201102</v>
+        <v>212327.9835355865</v>
       </c>
       <c r="AE3" t="n">
-        <v>248864.7298246189</v>
+        <v>290516.5143227812</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.172417543043409e-06</v>
+        <v>7.178565971770424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.977777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>225113.4292940717</v>
+        <v>262790.0259383892</v>
       </c>
     </row>
     <row r="4">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.7477151664194</v>
+        <v>212.1894937818956</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.6752420338825</v>
+        <v>290.3270265320447</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.9420259521352</v>
+        <v>262.6186225964528</v>
       </c>
       <c r="AD4" t="n">
-        <v>181747.7151664194</v>
+        <v>212189.4937818956</v>
       </c>
       <c r="AE4" t="n">
-        <v>248675.2420338824</v>
+        <v>290327.0265320447</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.184831001215056e-06</v>
+        <v>7.199923093272214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.963888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>224942.0259521352</v>
+        <v>262618.6225964528</v>
       </c>
     </row>
   </sheetData>
@@ -4220,28 +4220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.0552805730466</v>
+        <v>270.5251825047346</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.9812489038855</v>
+        <v>370.1444894317202</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.1563718156244</v>
+        <v>334.8184188614098</v>
       </c>
       <c r="AD2" t="n">
-        <v>236055.2805730466</v>
+        <v>270525.1825047346</v>
       </c>
       <c r="AE2" t="n">
-        <v>322981.2489038855</v>
+        <v>370144.4894317202</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243594554063147e-06</v>
+        <v>6.502305480305824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.663888888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>292156.3718156244</v>
+        <v>334818.4188614098</v>
       </c>
     </row>
   </sheetData>
@@ -4517,28 +4517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.1697859340151</v>
+        <v>274.5272898209423</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.4521172423538</v>
+        <v>375.6203492222695</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.4370379828469</v>
+        <v>339.7716702789664</v>
       </c>
       <c r="AD2" t="n">
-        <v>245169.7859340151</v>
+        <v>274527.2898209423</v>
       </c>
       <c r="AE2" t="n">
-        <v>335452.1172423538</v>
+        <v>375620.3492222694</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.583569403103461e-06</v>
+        <v>6.346767696829048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.026388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>303437.0379828469</v>
+        <v>339771.6702789664</v>
       </c>
     </row>
     <row r="3">
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.3557204393053</v>
+        <v>206.9843134364859</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.3483622559725</v>
+        <v>283.2050691471089</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.8828343495234</v>
+        <v>256.1763748286031</v>
       </c>
       <c r="AD3" t="n">
-        <v>187355.7204393053</v>
+        <v>206984.3134364859</v>
       </c>
       <c r="AE3" t="n">
-        <v>256348.3622559725</v>
+        <v>283205.0691471089</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.140533242298003e-06</v>
+        <v>7.333192042298813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.215277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>231882.8343495234</v>
+        <v>256176.3748286031</v>
       </c>
     </row>
   </sheetData>
@@ -4920,28 +4920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.1207875174796</v>
+        <v>352.0442134382105</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.0574312787385</v>
+        <v>481.682423920728</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.2996694163641</v>
+        <v>435.7113294272609</v>
       </c>
       <c r="AD2" t="n">
-        <v>312120.7875174796</v>
+        <v>352044.2134382105</v>
       </c>
       <c r="AE2" t="n">
-        <v>427057.4312787385</v>
+        <v>481682.423920728</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.106697852855069e-06</v>
+        <v>5.417809780994548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.811111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>386299.6694163641</v>
+        <v>435711.3294272608</v>
       </c>
     </row>
     <row r="3">
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.0527199526933</v>
+        <v>209.0571928488953</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.6702718565236</v>
+        <v>286.0412742081515</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.9831441566191</v>
+        <v>258.7418964592595</v>
       </c>
       <c r="AD3" t="n">
-        <v>189052.7199526933</v>
+        <v>209057.1928488953</v>
       </c>
       <c r="AE3" t="n">
-        <v>258670.2718565236</v>
+        <v>286041.2742081515</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.170549907900525e-06</v>
+        <v>7.273074870278822e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.073611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>233983.1441566191</v>
+        <v>258741.8964592595</v>
       </c>
     </row>
   </sheetData>
@@ -5323,28 +5323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.1885895741848</v>
+        <v>578.7903753388598</v>
       </c>
       <c r="AB2" t="n">
-        <v>721.3226861745109</v>
+        <v>791.9265259678594</v>
       </c>
       <c r="AC2" t="n">
-        <v>652.4806613887632</v>
+        <v>716.3461698053461</v>
       </c>
       <c r="AD2" t="n">
-        <v>527188.5895741847</v>
+        <v>578790.3753388599</v>
       </c>
       <c r="AE2" t="n">
-        <v>721322.6861745109</v>
+        <v>791926.5259678594</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.33369354335907e-06</v>
+        <v>3.96712435495322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.75138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>652480.6613887632</v>
+        <v>716346.1698053461</v>
       </c>
     </row>
     <row r="3">
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.782595955019</v>
+        <v>217.709531071995</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.5641880521047</v>
+        <v>297.879785079213</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.173500631077</v>
+        <v>269.4505564682449</v>
       </c>
       <c r="AD3" t="n">
-        <v>186782.595955019</v>
+        <v>217709.531071995</v>
       </c>
       <c r="AE3" t="n">
-        <v>255564.1880521047</v>
+        <v>297879.785079213</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.146827846422543e-06</v>
+        <v>7.049332502185305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.925000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>231173.500631077</v>
+        <v>269450.5564682449</v>
       </c>
     </row>
     <row r="4">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.2910869004216</v>
+        <v>216.2180220173976</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.52343956287</v>
+        <v>295.8390365899783</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.3275183134457</v>
+        <v>267.6045741506136</v>
       </c>
       <c r="AD4" t="n">
-        <v>185291.0869004216</v>
+        <v>216218.0220173976</v>
       </c>
       <c r="AE4" t="n">
-        <v>253523.43956287</v>
+        <v>295839.0365899783</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.172708757804472e-06</v>
+        <v>7.093328336241497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.894444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>229327.5183134457</v>
+        <v>267604.5741506136</v>
       </c>
     </row>
   </sheetData>
@@ -5832,28 +5832,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.7483186939162</v>
+        <v>220.5727577773778</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.3585089756863</v>
+        <v>301.7973781741629</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.3193811016035</v>
+        <v>272.9942599765906</v>
       </c>
       <c r="AD2" t="n">
-        <v>191748.3186939162</v>
+        <v>220572.7577773778</v>
       </c>
       <c r="AE2" t="n">
-        <v>262358.5089756863</v>
+        <v>301797.3781741629</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.006270062162964e-06</v>
+        <v>7.224252965596843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.515277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>237319.3811016035</v>
+        <v>272994.2599765906</v>
       </c>
     </row>
     <row r="3">
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.3611987125896</v>
+        <v>215.015045595459</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.9876137542789</v>
+        <v>294.1930711779086</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.6519537750084</v>
+        <v>266.1156973673444</v>
       </c>
       <c r="AD3" t="n">
-        <v>186361.1987125896</v>
+        <v>215015.045595459</v>
       </c>
       <c r="AE3" t="n">
-        <v>254987.6137542789</v>
+        <v>294193.0711779086</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.090585796306885e-06</v>
+        <v>7.37629418672881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.401388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>230651.9537750084</v>
+        <v>266115.6973673444</v>
       </c>
     </row>
   </sheetData>
@@ -6235,28 +6235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.5323249327318</v>
+        <v>216.2874864311601</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.9582444320047</v>
+        <v>295.9340808654418</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.3390716301593</v>
+        <v>267.6905475338224</v>
       </c>
       <c r="AD2" t="n">
-        <v>188532.3249327318</v>
+        <v>216287.4864311602</v>
       </c>
       <c r="AE2" t="n">
-        <v>257958.2444320047</v>
+        <v>295934.0808654418</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.915021126726097e-06</v>
+        <v>7.304178014399054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.879166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>233339.0716301593</v>
+        <v>267690.5475338224</v>
       </c>
     </row>
   </sheetData>
@@ -10313,28 +10313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.6121267523927</v>
+        <v>232.4273433458499</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.3275827893295</v>
+        <v>318.017345136343</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.4780731337408</v>
+        <v>287.6662160567719</v>
       </c>
       <c r="AD2" t="n">
-        <v>205612.1267523927</v>
+        <v>232427.3433458499</v>
       </c>
       <c r="AE2" t="n">
-        <v>281327.5827893295</v>
+        <v>318017.345136343</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680660248884085e-06</v>
+        <v>7.078046150765049e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.468055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>254478.0731337408</v>
+        <v>287666.2160567719</v>
       </c>
     </row>
   </sheetData>
@@ -10610,28 +10610,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.0226438827951</v>
+        <v>311.9476367787366</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.4568939187432</v>
+        <v>426.8205187991187</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.1964464991449</v>
+        <v>386.0853675312906</v>
       </c>
       <c r="AD2" t="n">
-        <v>270022.6438827951</v>
+        <v>311947.6367787366</v>
       </c>
       <c r="AE2" t="n">
-        <v>369456.8939187432</v>
+        <v>426820.5187991187</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86639613563172e-06</v>
+        <v>5.912226724110773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.915277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>334196.4464991449</v>
+        <v>386085.3675312906</v>
       </c>
     </row>
   </sheetData>
@@ -10907,28 +10907,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.0651304792114</v>
+        <v>305.710557043753</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.7244906556546</v>
+        <v>418.2866711451761</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.6749954071304</v>
+        <v>378.3659783201098</v>
       </c>
       <c r="AD2" t="n">
-        <v>276065.1304792114</v>
+        <v>305710.557043753</v>
       </c>
       <c r="AE2" t="n">
-        <v>377724.4906556546</v>
+        <v>418286.671145176</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.341281292924692e-06</v>
+        <v>5.870499425553598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>341674.9954071305</v>
+        <v>378365.9783201098</v>
       </c>
     </row>
     <row r="3">
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.1526105114466</v>
+        <v>207.9731519603722</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.4387024089845</v>
+        <v>284.5580416399661</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.8691139686343</v>
+        <v>257.4002215256512</v>
       </c>
       <c r="AD3" t="n">
-        <v>188152.6105114466</v>
+        <v>207973.1519603722</v>
       </c>
       <c r="AE3" t="n">
-        <v>257438.7024089845</v>
+        <v>284558.0416399661</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.15586766938075e-06</v>
+        <v>7.301695555366203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.141666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>232869.1139686343</v>
+        <v>257400.2215256512</v>
       </c>
     </row>
   </sheetData>
@@ -11310,28 +11310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.1124982488378</v>
+        <v>508.0588739924795</v>
       </c>
       <c r="AB2" t="n">
-        <v>639.1239276530757</v>
+        <v>695.1485653721328</v>
       </c>
       <c r="AC2" t="n">
-        <v>578.1268370139317</v>
+        <v>628.8045619401549</v>
       </c>
       <c r="AD2" t="n">
-        <v>467112.4982488378</v>
+        <v>508058.8739924795</v>
       </c>
       <c r="AE2" t="n">
-        <v>639123.9276530758</v>
+        <v>695148.5653721328</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.513092177291778e-06</v>
+        <v>4.297107558156536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>578126.8370139317</v>
+        <v>628804.561940155</v>
       </c>
     </row>
     <row r="3">
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.8038133311209</v>
+        <v>214.4921927937956</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.4884862514749</v>
+        <v>293.4776809080354</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.4867780900146</v>
+        <v>265.4685829407711</v>
       </c>
       <c r="AD3" t="n">
-        <v>183803.8133311209</v>
+        <v>214492.1927937956</v>
       </c>
       <c r="AE3" t="n">
-        <v>251488.4862514749</v>
+        <v>293477.6809080354</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.166344745396287e-06</v>
+        <v>7.123985207188654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.943055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>227486.7780900146</v>
+        <v>265468.5829407711</v>
       </c>
     </row>
     <row r="4">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.9325368895245</v>
+        <v>214.6209163521991</v>
       </c>
       <c r="AB4" t="n">
-        <v>251.6646115029651</v>
+        <v>293.6538061595256</v>
       </c>
       <c r="AC4" t="n">
-        <v>227.646094194696</v>
+        <v>265.6278990454526</v>
       </c>
       <c r="AD4" t="n">
-        <v>183932.5368895245</v>
+        <v>214620.9163521992</v>
       </c>
       <c r="AE4" t="n">
-        <v>251664.6115029651</v>
+        <v>293653.8061595256</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.174944624225889e-06</v>
+        <v>7.138690041596175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>227646.094194696</v>
+        <v>265627.8990454526</v>
       </c>
     </row>
   </sheetData>
@@ -11819,28 +11819,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.7402114420844</v>
+        <v>397.567782242568</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.1617426273474</v>
+        <v>543.9697791169626</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.6220956117046</v>
+        <v>492.0540668644188</v>
       </c>
       <c r="AD2" t="n">
-        <v>348740.2114420844</v>
+        <v>397567.782242568</v>
       </c>
       <c r="AE2" t="n">
-        <v>477161.7426273474</v>
+        <v>543969.7791169626</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.285896298691652e-06</v>
+        <v>4.899728630127181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>431622.0956117046</v>
+        <v>492054.0668644188</v>
       </c>
     </row>
   </sheetData>
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.0427679007825</v>
+        <v>215.1774998260203</v>
       </c>
       <c r="AB2" t="n">
-        <v>255.9201667862743</v>
+        <v>294.4153482231372</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.4955052544768</v>
+        <v>266.3167606033442</v>
       </c>
       <c r="AD2" t="n">
-        <v>187042.7679007825</v>
+        <v>215177.4998260203</v>
       </c>
       <c r="AE2" t="n">
-        <v>255920.1667862743</v>
+        <v>294415.3482231372</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.986146767168994e-06</v>
+        <v>7.34420649353189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.690277777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>231495.5052544768</v>
+        <v>266316.7606033442</v>
       </c>
     </row>
     <row r="3">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.3980382248755</v>
+        <v>215.5327701501133</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.4062633171187</v>
+        <v>294.9014447539815</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.9352094146583</v>
+        <v>266.7564647635257</v>
       </c>
       <c r="AD3" t="n">
-        <v>187398.0382248755</v>
+        <v>215532.7701501133</v>
       </c>
       <c r="AE3" t="n">
-        <v>256406.2633171186</v>
+        <v>294901.4447539815</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.995291552869996e-06</v>
+        <v>7.361055144233971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.676388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>231935.2094146583</v>
+        <v>266756.4647635258</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.0697877511607</v>
+        <v>237.2110804738675</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.6902629921931</v>
+        <v>324.5626653184807</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.5198238575956</v>
+        <v>293.586860067143</v>
       </c>
       <c r="AD2" t="n">
-        <v>208069.7877511607</v>
+        <v>237211.0804738675</v>
       </c>
       <c r="AE2" t="n">
-        <v>284690.2629921931</v>
+        <v>324562.6653184807</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.838591041910992e-06</v>
+        <v>6.85736276259992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.688888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>257519.8238575956</v>
+        <v>293586.860067143</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.5574840591158</v>
+        <v>215.5281845812303</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.2561800248941</v>
+        <v>294.8951705763349</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.8948884576914</v>
+        <v>266.7507893845878</v>
       </c>
       <c r="AD3" t="n">
-        <v>186557.4840591158</v>
+        <v>215528.1845812303</v>
       </c>
       <c r="AE3" t="n">
-        <v>255256.1800248942</v>
+        <v>294895.1705763349</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120805701760684e-06</v>
+        <v>7.361518656880765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.298611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>230894.8884576914</v>
+        <v>266750.7893845878</v>
       </c>
     </row>
   </sheetData>
